--- a/app/item_receipts_export.xlsx
+++ b/app/item_receipts_export.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,11 +499,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,27 +522,39 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-11-19_AKG-Thapra_Received_1001_20251119064604_158063.jpg</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>http://10.0.7.89:5050/download/2025-11-19_AKG-Thapra_Received_1001_20251119064604_158063.jpg</t>
+        </is>
+      </c>
       <c r="K2" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -552,16 +564,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>เนื้อไก่หมัก 1000 กรัม (ใช้ 50 กรัม/ที่) ลังละ12ถุง</t>
+          <t>เนื้อหมู</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -572,16 +584,16 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -591,16 +603,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>เนื้อหมู</t>
+          <t>ปลาหมึกกรอบ2000กรัม(ใช้60g/ที่ รวมใช้40g/ที่)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -611,16 +623,16 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -630,36 +642,40 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>เนื้อหมู</t>
+          <t>คุ๊กแฮม 1000 กรัม (แฮม 10 ชิ้น/ 32 g)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -669,16 +685,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ปลาหมึกกรอบ2000กรัม(ใช้60g/ที่ รวมใช้40g/ที่)</t>
+          <t>สโมคเบคอน 500 กรัม (8 ชิ้น/ 34 g )</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -689,16 +705,16 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -708,36 +724,36 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ปลาหมึกกรอบ2000กรัม(ใช้60g/ที่ รวมใช้40g/ที่)</t>
+          <t>ไข่ไก่ box 30 No.4  (คั่วล้วน2/ที่)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>UNIT</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,16 +763,16 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>คุ๊กแฮม 1000 กรัม (แฮม 10 ชิ้น/ 32 g)</t>
+          <t>เส้นใหญ่ หน้ากว้าง 3 นิ้ว (130g/ที่)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -767,16 +783,16 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -786,36 +802,36 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>คุ๊กแฮม 1000 กรัม (แฮม 10 ชิ้น/ 32 g)</t>
+          <t>น้ำมันหมู เบทาโกร 1 kg (40 g/ที่)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -825,36 +841,36 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>สโมคเบคอน 500 กรัม (8 ชิ้น/ 34 g )</t>
+          <t>ซอสคั่วไก่ 1 kg (5 g/ที่)</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -864,36 +880,36 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>สโมคเบคอน 500 กรัม (8 ชิ้น/ 34 g )</t>
+          <t>กุ้ง 20 ตัว/โล</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -903,36 +919,36 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ไข่ไก่ box 30 No.4  (คั่วล้วน2/ที่)</t>
+          <t>โครงไก่</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>UNIT</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -942,36 +958,36 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ไข่ไก่ box 30 No.4  (คั่วล้วน2/ที่)</t>
+          <t>ต้นหอมไทย 0.7g</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>UNIT</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -981,16 +997,16 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>1013</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>เส้นใหญ่ หน้ากว้าง 3 นิ้ว (130g/ที่)</t>
+          <t>ผักชีไทย 0.3g</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1001,16 +1017,16 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1020,16 +1036,16 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>เส้นใหญ่ หน้ากว้าง 3 นิ้ว (130g/ที่)</t>
+          <t>กระเทียมใหญ่/KG</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1040,16 +1056,16 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1059,36 +1075,36 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>น้ำมันหมู เบทาโกร 1 kg (40 g/ที่)</t>
+          <t>พริกชี้ฟ้าแดง (ทำพริกน้ำส้ม)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1098,36 +1114,36 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>น้ำมันหมู เบทาโกร 1 kg (40 g/ที่)</t>
+          <t>ผักกาดหอมคัด(ใช้ 20 g / portion)</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1137,16 +1153,16 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ซอสคั่วไก่ 1 kg (5 g/ที่)</t>
+          <t>เกลือไทย 50g * 12pcs</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1157,16 +1173,16 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1176,16 +1192,16 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ซอสคั่วไก่ 1 kg (5 g/ที่)</t>
+          <t>พริกไทยขาวป่น 500g.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1196,16 +1212,16 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45977</v>
+        <v>45980</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-Thapra</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1215,16 +1231,16 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1019</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>กุ้ง 20 ตัว/โล</t>
+          <t>ไก่หมัก</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1235,55 +1251,55 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45980.57365740741</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-Seacon</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>กุ้ง 20 ตัว/โล</t>
+          <t>เนื้อไก่หมัก 1000 กรัม (ใช้ 50 กรัม/ที่) ลังละ12ถุง</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45979.41579861111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1293,16 +1309,16 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>โครงไก่</t>
+          <t>เนื้อไก่หมัก 1000 กรัม (ใช้ 50 กรัม/ที่) ลังละ12ถุง</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1310,38 +1326,46 @@
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-11-18_AKG-SKV38_Received_1001_20251118053120_jpg</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>http://10.0.7.89:5050/download/2025-11-18_AKG-SKV38_Received_1001_20251118053120_jpg</t>
+        </is>
+      </c>
       <c r="K22" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45979.52175925926</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-Hugthai</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Wasted</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>โครงไก่</t>
+          <t>เนื้อไก่หมัก 1000 กรัม (ใช้ 50 กรัม/ที่) ลังละ12ถุง</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1352,35 +1376,35 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45979.4169675926</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ต้นหอมไทย 0.7g</t>
+          <t>เนื้อไก่หมัก 1000 กรัม (ใช้ 50 กรัม/ที่) ลังละ12ถุง</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1388,46 +1412,38 @@
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2025-11-16_AKG-EMQ_Received_1012_20251116093219_1.png</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>http://localhost:5050/download/2025-11-16_AKG-EMQ_Received_1012_20251116093219_1.png</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45979.52277777778</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Wasted</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ต้นหอมไทย 0.7g</t>
+          <t>เนื้อไก่หมัก 1000 กรัม (ใช้ 50 กรัม/ที่) ลังละ12ถุง</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1438,35 +1454,35 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45979.52221064815</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1013</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ผักชีไทย 0.3g</t>
+          <t>เนื้อหมู</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1474,38 +1490,46 @@
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-11-18_AKG-SKV38_Ending_1002_20251118053248_jpg</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>http://10.0.7.89:5050/download/2025-11-18_AKG-SKV38_Ending_1002_20251118053248_jpg</t>
+        </is>
+      </c>
       <c r="K26" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45979.52277777778</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-Seacon</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1013</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ผักชีไทย 0.3g</t>
+          <t>เนื้อหมู</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1516,16 +1540,16 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45979.41579861111</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1535,16 +1559,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>กระเทียมใหญ่/KG</t>
+          <t>เนื้อหมู</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1555,35 +1579,35 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45979.52175925926</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-Hugthai</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Wasted</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>กระเทียมใหญ่/KG</t>
+          <t>เนื้อหมู</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1594,35 +1618,35 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45979.4169675926</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Wasted</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>พริกชี้ฟ้าแดง (ทำพริกน้ำส้ม)</t>
+          <t>เนื้อหมู</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1633,35 +1657,35 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45979.52221064815</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>พริกชี้ฟ้าแดง (ทำพริกน้ำส้ม)</t>
+          <t>ปลาหมึกกรอบ2000กรัม(ใช้60g/ที่ รวมใช้40g/ที่)</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1672,35 +1696,35 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45979.52277777778</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-Seacon</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ผักกาดหอมคัด(ใช้ 20 g / portion)</t>
+          <t>ปลาหมึกกรอบ2000กรัม(ใช้60g/ที่ รวมใช้40g/ที่)</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1711,35 +1735,35 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45979.41579861111</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Wasted</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ผักกาดหอมคัด(ใช้ 20 g / portion)</t>
+          <t>ปลาหมึกกรอบ2000กรัม(ใช้60g/ที่ รวมใช้40g/ที่)</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1747,66 +1771,58 @@
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2025-11-16_AKG-EMQ_Received_1016_20251116093219_baannok_logoo.png</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>http://localhost:5050/download/2025-11-16_AKG-EMQ_Received_1016_20251116093219_baannok_logoo.png</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45979.52221064815</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-Hugthai</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Wasted</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>เกลือไทย 50g * 12pcs</t>
+          <t>ปลาหมึกกรอบ2000กรัม(ใช้60g/ที่ รวมใช้40g/ที่)</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45979.4169675926</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1816,75 +1832,75 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>เกลือไทย 50g * 12pcs</t>
+          <t>ปลาหมึกกรอบ2000กรัม(ใช้60g/ที่ รวมใช้40g/ที่)</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45979.52175925926</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AKG-Dusit</t>
+          <t>AKG-Hugthai</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Wasted</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>พริกไทยขาวป่น 500g.</t>
+          <t>คุ๊กแฮม 1000 กรัม (แฮม 10 ชิ้น/ 32 g)</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" s="3" t="n">
-        <v>45977.67959490741</v>
+        <v>45979.4169675926</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45977</v>
+        <v>45979</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AKG-EMQ</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1894,63 +1910,55 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>พริกไทยขาวป่น 500g.</t>
+          <t>คุ๊กแฮม 1000 กรัม (แฮม 10 ชิ้น/ 32 g)</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2025-11-16_AKG-EMQ_Received_1018_20251116093219_Logo_Nara_Group_0.png</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>http://localhost:5050/download/2025-11-16_AKG-EMQ_Received_1018_20251116093219_Logo_Nara_Group_0.png</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" s="3" t="n">
-        <v>45977.68910879629</v>
+        <v>45979.52175925926</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Wasted</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>เนื้อไก่หมัก 1000 กรัม (ใช้ 50 กรัม/ที่) ลังละ12ถุง</t>
+          <t>คุ๊กแฮม 1000 กรัม (แฮม 10 ชิ้น/ 32 g)</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1961,78 +1969,74 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.52221064815</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>เนื้อไก่หมัก 1000 กรัม (ใช้ 50 กรัม/ที่) ลังละ12ถุง</t>
+          <t>คุ๊กแฮม 1000 กรัม (แฮม 10 ชิ้น/ 32 g)</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" s="3" t="n">
-        <v>45970.86349537037</v>
+        <v>45979.52277777778</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-Seacon</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>เนื้อหมู</t>
+          <t>คุ๊กแฮม 1000 กรัม (แฮม 10 ชิ้น/ 32 g)</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2043,16 +2047,16 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.41579861111</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2062,16 +2066,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ปลาหมึกกรอบ2000กรัม(ใช้60g/ที่ รวมใช้40g/ที่)</t>
+          <t>สโมคเบคอน 500 กรัม (8 ชิ้น/ 34 g )</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2082,35 +2086,35 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.52175925926</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-Hugthai</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Wasted</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>คุ๊กแฮม 1000 กรัม (แฮม 10 ชิ้น/ 32 g)</t>
+          <t>สโมคเบคอน 500 กรัม (8 ชิ้น/ 34 g )</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2121,21 +2125,21 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.4169675926</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2149,7 +2153,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2160,74 +2164,74 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.52277777778</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-Seacon</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ไข่ไก่ box 30 No.4  (คั่วล้วน2/ที่)</t>
+          <t>สโมคเบคอน 500 กรัม (8 ชิ้น/ 34 g )</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>UNIT</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.41579861111</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Wasted</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>เส้นใหญ่ หน้ากว้าง 3 นิ้ว (130g/ที่)</t>
+          <t>สโมคเบคอน 500 กรัม (8 ชิ้น/ 34 g )</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2238,16 +2242,16 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.52221064815</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2257,211 +2261,211 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>น้ำมันหมู เบทาโกร 1 kg (40 g/ที่)</t>
+          <t>ไข่ไก่ box 30 No.4  (คั่วล้วน2/ที่)</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>UNIT</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.52175925926</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-Hugthai</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Wasted</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ซอสคั่วไก่ 1 kg (5 g/ที่)</t>
+          <t>ไข่ไก่ box 30 No.4  (คั่วล้วน2/ที่)</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>UNIT</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.4169675926</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Wasted</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>กุ้ง 20 ตัว/โล</t>
+          <t>ไข่ไก่ box 30 No.4  (คั่วล้วน2/ที่)</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>UNIT</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.52221064815</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>โครงไก่</t>
+          <t>ไข่ไก่ box 30 No.4  (คั่วล้วน2/ที่)</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>UNIT</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.52277777778</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-Seacon</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ต้นหอมไทย 0.7g</t>
+          <t>ไข่ไก่ box 30 No.4  (คั่วล้วน2/ที่)</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>UNIT</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.41579861111</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-Seacon</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1013</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ผักชีไทย 0.3g</t>
+          <t>เส้นใหญ่ หน้ากว้าง 3 นิ้ว (130g/ที่)</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2472,35 +2476,35 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.41579861111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-Hugthai</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Wasted</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>กระเทียมใหญ่/KG</t>
+          <t>เส้นใหญ่ หน้ากว้าง 3 นิ้ว (130g/ที่)</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2511,35 +2515,35 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.4169675926</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>พริกชี้ฟ้าแดง (ทำพริกน้ำส้ม)</t>
+          <t>เส้นใหญ่ หน้ากว้าง 3 นิ้ว (130g/ที่)</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2550,16 +2554,16 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.52277777778</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2569,16 +2573,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ผักกาดหอมคัด(ใช้ 20 g / portion)</t>
+          <t>เส้นใหญ่ หน้ากว้าง 3 นิ้ว (130g/ที่)</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2589,55 +2593,55 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.52175925926</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Received</t>
+          <t>Wasted</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>เกลือไทย 50g * 12pcs</t>
+          <t>เส้นใหญ่ หน้ากว้าง 3 นิ้ว (130g/ที่)</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.52221064815</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45970</v>
+        <v>45979</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>AKG-SKV38</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2647,16 +2651,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>พริกไทยขาวป่น 500g.</t>
+          <t>น้ำมันหมู เบทาโกร 1 kg (40 g/ที่)</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2667,7 +2671,4993 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" s="3" t="n">
-        <v>45970.86222222223</v>
+        <v>45979.52175925926</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>น้ำมันหมู เบทาโกร 1 kg (40 g/ที่)</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" s="3" t="n">
+        <v>45979.52277777778</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>AKG-Seacon</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>น้ำมันหมู เบทาโกร 1 kg (40 g/ที่)</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" s="3" t="n">
+        <v>45979.41579861111</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>น้ำมันหมู เบทาโกร 1 kg (40 g/ที่)</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" s="3" t="n">
+        <v>45979.52221064815</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>AKG-Hugthai</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>น้ำมันหมู เบทาโกร 1 kg (40 g/ที่)</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" s="3" t="n">
+        <v>45979.4169675926</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>ซอสคั่วไก่ 1 kg (5 g/ที่)</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>4</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" s="3" t="n">
+        <v>45979.52175925926</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>ซอสคั่วไก่ 1 kg (5 g/ที่)</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" s="3" t="n">
+        <v>45979.52277777778</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>AKG-Seacon</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>ซอสคั่วไก่ 1 kg (5 g/ที่)</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" s="3" t="n">
+        <v>45979.41579861111</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>AKG-Hugthai</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>ซอสคั่วไก่ 1 kg (5 g/ที่)</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" s="3" t="n">
+        <v>45979.4169675926</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ซอสคั่วไก่ 1 kg (5 g/ที่)</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" s="3" t="n">
+        <v>45979.52221064815</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>กุ้ง 20 ตัว/โล</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" s="3" t="n">
+        <v>45979.52277777778</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>กุ้ง 20 ตัว/โล</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>4</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" s="3" t="n">
+        <v>45979.52175925926</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>กุ้ง 20 ตัว/โล</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" s="3" t="n">
+        <v>45979.52221064815</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>AKG-Hugthai</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>กุ้ง 20 ตัว/โล</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" s="3" t="n">
+        <v>45979.4169675926</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>AKG-Seacon</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>กุ้ง 20 ตัว/โล</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" s="3" t="n">
+        <v>45979.41579861111</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>AKG-Seacon</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>โครงไก่</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" s="3" t="n">
+        <v>45979.41579861111</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>โครงไก่</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>2</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" s="3" t="n">
+        <v>45979.52277777778</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>โครงไก่</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>4</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" s="3" t="n">
+        <v>45979.52175925926</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>โครงไก่</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" s="3" t="n">
+        <v>45979.52221064815</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>AKG-Hugthai</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>โครงไก่</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" s="3" t="n">
+        <v>45979.4169675926</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>AKG-Seacon</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ต้นหอมไทย 0.7g</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>2</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" s="3" t="n">
+        <v>45979.41579861111</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ต้นหอมไทย 0.7g</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>4</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" s="3" t="n">
+        <v>45979.52175925926</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>ต้นหอมไทย 0.7g</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" s="3" t="n">
+        <v>45979.52277777778</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>AKG-Hugthai</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>ต้นหอมไทย 0.7g</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" s="3" t="n">
+        <v>45979.4169675926</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>ต้นหอมไทย 0.7g</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" s="3" t="n">
+        <v>45979.52221064815</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>ผักชีไทย 0.3g</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>4</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" s="3" t="n">
+        <v>45979.52175925926</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>ผักชีไทย 0.3g</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>2</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" s="3" t="n">
+        <v>45979.52277777778</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>AKG-Hugthai</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>ผักชีไทย 0.3g</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" s="3" t="n">
+        <v>45979.4169675926</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>ผักชีไทย 0.3g</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" s="3" t="n">
+        <v>45979.52221064815</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>AKG-Seacon</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>ผักชีไทย 0.3g</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" s="3" t="n">
+        <v>45979.41579861111</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>กระเทียมใหญ่/KG</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>4</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" s="3" t="n">
+        <v>45979.52175925926</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>กระเทียมใหญ่/KG</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>2</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" s="3" t="n">
+        <v>45979.52221064815</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>AKG-Hugthai</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>กระเทียมใหญ่/KG</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" s="3" t="n">
+        <v>45979.4169675926</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>AKG-Seacon</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>กระเทียมใหญ่/KG</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>2</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" s="3" t="n">
+        <v>45979.41579861111</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>กระเทียมใหญ่/KG</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>2</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" s="3" t="n">
+        <v>45979.52277777778</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>AKG-Hugthai</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>พริกชี้ฟ้าแดง (ทำพริกน้ำส้ม)</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" s="3" t="n">
+        <v>45979.4169675926</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>พริกชี้ฟ้าแดง (ทำพริกน้ำส้ม)</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>4</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" s="3" t="n">
+        <v>45979.52175925926</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>พริกชี้ฟ้าแดง (ทำพริกน้ำส้ม)</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" s="3" t="n">
+        <v>45979.52277777778</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>พริกชี้ฟ้าแดง (ทำพริกน้ำส้ม)</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>2</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" s="3" t="n">
+        <v>45979.52221064815</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>AKG-Seacon</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>พริกชี้ฟ้าแดง (ทำพริกน้ำส้ม)</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>2</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" s="3" t="n">
+        <v>45979.41579861111</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>ผักกาดหอมคัด(ใช้ 20 g / portion)</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>2</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" s="3" t="n">
+        <v>45979.52221064815</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>ผักกาดหอมคัด(ใช้ 20 g / portion)</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>2</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" s="3" t="n">
+        <v>45979.52277777778</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>AKG-Seacon</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>ผักกาดหอมคัด(ใช้ 20 g / portion)</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>2</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" s="3" t="n">
+        <v>45979.41579861111</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>ผักกาดหอมคัด(ใช้ 20 g / portion)</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>4</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" s="3" t="n">
+        <v>45979.52175925926</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>AKG-Hugthai</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>ผักกาดหอมคัด(ใช้ 20 g / portion)</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" s="3" t="n">
+        <v>45979.4169675926</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>เกลือไทย 50g * 12pcs</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>2</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" s="3" t="n">
+        <v>45979.52277777778</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>เกลือไทย 50g * 12pcs</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>4</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" s="3" t="n">
+        <v>45979.52175925926</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>AKG-Hugthai</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>เกลือไทย 50g * 12pcs</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" s="3" t="n">
+        <v>45979.4169675926</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>เกลือไทย 50g * 12pcs</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>2</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" s="3" t="n">
+        <v>45979.52221064815</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>AKG-Seacon</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>เกลือไทย 50g * 12pcs</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>2</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" s="3" t="n">
+        <v>45979.41579861111</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>AKG-Hugthai</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>พริกไทยขาวป่น 500g.</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" s="3" t="n">
+        <v>45979.4169675926</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Wasted</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>พริกไทยขาวป่น 500g.</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" s="3" t="n">
+        <v>45979.52221064815</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>AKG-Seacon</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>พริกไทยขาวป่น 500g.</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>2</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" s="3" t="n">
+        <v>45979.41579861111</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Ending</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>พริกไทยขาวป่น 500g.</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" s="3" t="n">
+        <v>45979.52277777778</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>AKG-SKV38</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>พริกไทยขาวป่น 500g.</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>4</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" s="3" t="n">
+        <v>45979.52175925926</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>เนื้อไก่หมัก 1000 กรัม (ใช้ 50 กรัม/ที่) ลังละ12ถุง</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>เนื้อหมู</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>ปลาหมึกกรอบ2000กรัม(ใช้60g/ที่ รวมใช้40g/ที่)</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>คุ๊กแฮม 1000 กรัม (แฮม 10 ชิ้น/ 32 g)</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1005</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>สโมคเบคอน 500 กรัม (8 ชิ้น/ 34 g )</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>ไข่ไก่ box 30 No.4  (คั่วล้วน2/ที่)</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>UNIT</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>เส้นใหญ่ หน้ากว้าง 3 นิ้ว (130g/ที่)</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>น้ำมันหมู เบทาโกร 1 kg (40 g/ที่)</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>ซอสคั่วไก่ 1 kg (5 g/ที่)</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>กุ้ง 20 ตัว/โล</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>โครงไก่</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>ต้นหอมไทย 0.7g</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>ผักชีไทย 0.3g</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>กระเทียมใหญ่/KG</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>พริกชี้ฟ้าแดง (ทำพริกน้ำส้ม)</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>ผักกาดหอมคัด(ใช้ 20 g / portion)</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>เกลือไทย 50g * 12pcs</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>พริกไทยขาวป่น 500g.</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" s="3" t="n">
+        <v>45978.4563425926</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>เนื้อไก่หมัก 1000 กรัม (ใช้ 50 กรัม/ที่) ลังละ12ถุง</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>5</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>เนื้อไก่หมัก 1000 กรัม (ใช้ 50 กรัม/ที่) ลังละ12ถุง</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>3</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>เนื้อไก่หมัก 1000 กรัม (ใช้ 50 กรัม/ที่) ลังละ12ถุง</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>7</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" s="3" t="n">
+        <v>45977.73329861111</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>เนื้อหมู</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>5</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>เนื้อหมู</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>3</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>เนื้อหมู</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>7</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" s="3" t="n">
+        <v>45977.73329861111</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>ปลาหมึกกรอบ2000กรัม(ใช้60g/ที่ รวมใช้40g/ที่)</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>3</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>ปลาหมึกกรอบ2000กรัม(ใช้60g/ที่ รวมใช้40g/ที่)</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>5</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>ปลาหมึกกรอบ2000กรัม(ใช้60g/ที่ รวมใช้40g/ที่)</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>7</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" s="3" t="n">
+        <v>45977.73329861111</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>คุ๊กแฮม 1000 กรัม (แฮม 10 ชิ้น/ 32 g)</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>3</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>คุ๊กแฮม 1000 กรัม (แฮม 10 ชิ้น/ 32 g)</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>5</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>คุ๊กแฮม 1000 กรัม (แฮม 10 ชิ้น/ 32 g)</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>7</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" s="3" t="n">
+        <v>45977.73329861111</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1005</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>สโมคเบคอน 500 กรัม (8 ชิ้น/ 34 g )</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>5</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1005</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>สโมคเบคอน 500 กรัม (8 ชิ้น/ 34 g )</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>7</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" s="3" t="n">
+        <v>45977.73329861111</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1005</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>สโมคเบคอน 500 กรัม (8 ชิ้น/ 34 g )</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>3</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>ไข่ไก่ box 30 No.4  (คั่วล้วน2/ที่)</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>7</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>UNIT</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" s="3" t="n">
+        <v>45977.73329861111</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>ไข่ไก่ box 30 No.4  (คั่วล้วน2/ที่)</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>5</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>UNIT</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>ไข่ไก่ box 30 No.4  (คั่วล้วน2/ที่)</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>3</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>UNIT</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>เส้นใหญ่ หน้ากว้าง 3 นิ้ว (130g/ที่)</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>เส้นใหญ่ หน้ากว้าง 3 นิ้ว (130g/ที่)</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>5</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>เส้นใหญ่ หน้ากว้าง 3 นิ้ว (130g/ที่)</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>7</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" s="3" t="n">
+        <v>45977.73329861111</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>น้ำมันหมู เบทาโกร 1 kg (40 g/ที่)</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>3</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>น้ำมันหมู เบทาโกร 1 kg (40 g/ที่)</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>7</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" s="3" t="n">
+        <v>45977.73329861111</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>น้ำมันหมู เบทาโกร 1 kg (40 g/ที่)</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>5</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>ซอสคั่วไก่ 1 kg (5 g/ที่)</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>3</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>ซอสคั่วไก่ 1 kg (5 g/ที่)</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>7</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" s="3" t="n">
+        <v>45977.73329861111</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>ซอสคั่วไก่ 1 kg (5 g/ที่)</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>5</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>กุ้ง 20 ตัว/โล</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>3</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>กุ้ง 20 ตัว/โล</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>7</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" s="3" t="n">
+        <v>45977.73329861111</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>กุ้ง 20 ตัว/โล</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>5</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>โครงไก่</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>3</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>โครงไก่</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>7</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>2025-11-16_AKG-SPG_Received_1011_20251116103557_jpg</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>http://10.0.7.89:5050/download/2025-11-16_AKG-SPG_Received_1011_20251116103557_jpg</t>
+        </is>
+      </c>
+      <c r="K160" s="3" t="n">
+        <v>45977.73329861111</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>โครงไก่</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>5</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>ต้นหอมไทย 0.7g</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>5</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>ต้นหอมไทย 0.7g</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>3</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>2025-11-16_AKG-EMQ_Received_1012_20251116093219_1.png</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>http://10.0.7.89:5050/download/2025-11-16_AKG-EMQ_Received_1012_20251116093219_1.png</t>
+        </is>
+      </c>
+      <c r="K163" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>ต้นหอมไทย 0.7g</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>7</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>2025-11-16_AKG-SPG_Received_1012_20251116103557_jpg</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>http://10.0.7.89:5050/download/2025-11-16_AKG-SPG_Received_1012_20251116103557_jpg</t>
+        </is>
+      </c>
+      <c r="K164" s="3" t="n">
+        <v>45977.73329861111</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>ผักชีไทย 0.3g</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>5</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>ผักชีไทย 0.3g</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>7</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>2025-11-16_AKG-SPG_Received_1013_20251116103557_jpg</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>http://10.0.7.89:5050/download/2025-11-16_AKG-SPG_Received_1013_20251116103557_jpg</t>
+        </is>
+      </c>
+      <c r="K166" s="3" t="n">
+        <v>45977.73329861111</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>ผักชีไทย 0.3g</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>3</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>กระเทียมใหญ่/KG</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>7</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" s="3" t="n">
+        <v>45977.73329861111</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>กระเทียมใหญ่/KG</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>5</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>กระเทียมใหญ่/KG</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>3</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>พริกชี้ฟ้าแดง (ทำพริกน้ำส้ม)</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>5</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>พริกชี้ฟ้าแดง (ทำพริกน้ำส้ม)</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>3</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>พริกชี้ฟ้าแดง (ทำพริกน้ำส้ม)</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>7</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>2025-11-16_AKG-SPG_Received_1015_20251116103557_jpg</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>http://10.0.7.89:5050/download/2025-11-16_AKG-SPG_Received_1015_20251116103557_jpg</t>
+        </is>
+      </c>
+      <c r="K173" s="3" t="n">
+        <v>45977.73329861111</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>ผักกาดหอมคัด(ใช้ 20 g / portion)</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>5</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>ผักกาดหอมคัด(ใช้ 20 g / portion)</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>3</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>2025-11-16_AKG-EMQ_Received_1016_20251116093219_baannok_logoo.png</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>http://10.0.7.89:5050/download/2025-11-16_AKG-EMQ_Received_1016_20251116093219_baannok_logoo.png</t>
+        </is>
+      </c>
+      <c r="K175" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>ผักกาดหอมคัด(ใช้ 20 g / portion)</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>7</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>2025-11-16_AKG-SPG_Received_1016_20251116103557_jpg</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>http://10.0.7.89:5050/download/2025-11-16_AKG-SPG_Received_1016_20251116103557_jpg</t>
+        </is>
+      </c>
+      <c r="K176" s="3" t="n">
+        <v>45977.73329861111</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>เกลือไทย 50g * 12pcs</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>5</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>เกลือไทย 50g * 12pcs</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>7</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>2025-11-16_AKG-SPG_Received_1017_20251116103557_jpg</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>http://10.0.7.89:5050/download/2025-11-16_AKG-SPG_Received_1017_20251116103557_jpg</t>
+        </is>
+      </c>
+      <c r="K178" s="3" t="n">
+        <v>45977.73329861111</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>เกลือไทย 50g * 12pcs</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>3</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>AKG-Dusit</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>พริกไทยขาวป่น 500g.</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>5</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" s="3" t="n">
+        <v>45977.67959490741</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>AKG-EMQ</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>พริกไทยขาวป่น 500g.</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>3</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>2025-11-16_AKG-EMQ_Received_1018_20251116093219_Logo_Nara_Group_0.png</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>http://10.0.7.89:5050/download/2025-11-16_AKG-EMQ_Received_1018_20251116093219_Logo_Nara_Group_0.png</t>
+        </is>
+      </c>
+      <c r="K181" s="3" t="n">
+        <v>45977.68910879629</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>AKG-SPG</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>พริกไทยขาวป่น 500g.</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>7</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" s="3" t="n">
+        <v>45977.73329861111</v>
       </c>
     </row>
   </sheetData>
